--- a/ExecutionTestData/12/TestData.xlsx
+++ b/ExecutionTestData/12/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -485,12 +485,6 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>APPLE_iPhone12Pro_iOS_14.2.1_0d955</t>
-  </si>
-  <si>
-    <t>14.2.1</t>
-  </si>
-  <si>
     <t>https://us.pcloudy.com</t>
   </si>
   <si>
@@ -498,6 +492,12 @@
   </si>
   <si>
     <t>15.2.0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE2020_iOS_13.6.1_4989f</t>
+  </si>
+  <si>
+    <t>13.6.1</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1132,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1195,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>151</v>
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>152</v>
